--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560321/JX560321_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560321/JX560321_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.8929389948</v>
+        <v>45441.8331987499</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1514_1515del']</t>
+          <t>['1477_1532instgctccactagcaatttgtttgtagacgccgggaacgagcctgcggggtacgata', '1491_1612del', '1449_1461insagggttgcaacc', '1463_1594del', '1503_1643instgcgatggcaatactgagagttgtgataccctaccctccgacgtcttcgaagagacttaaataagggtcttggctcgtaataactaccgcctacagttgaaaattgcctgccctgtcgaaaattcggaaatcggcctagt']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89293902372</v>
+        <v>45441.83319877306</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['200_204del']</t>
+          <t>['172_188del', '163_276instattgtggatacctatataacgtaggtggtcgcgacttgtacatggtaccctcctccagtcagagtcaacacaggtatattcattaatctgggacaccaatttcatggatatt', '174_265inscgcaccgacataacctcactgatgcgaacctcgagtgatatgctttaaaggttgcatcatgcccgtttcattggagtggaatggcacaggc', '236_317del', '254_325instagtgccgatgcatcggggatacgaagtttgttttagcaaaggcccagtcgtgtaagggtctagctgcacg']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8929390411</v>
+        <v>45441.83319879622</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2064_2065insa']</t>
+          <t>['2054_2173del', '2080_2099insccataagggtacacacttg', '2066_2117insaacctcagtgtattgcacctccacaaccaggtggatattcttaccgattac', '2043_2082del', '2036_2172del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89293905266</v>
+        <v>45441.83319881371</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1358t&gt;c']</t>
+          <t>['1333_1394insggatttgttttaaatcttctgtcagagcgtaccgagaaatatcaagcttcggtgggcgttg', '1399_1427del', '1458_1471inscaaacgcggtgaa', '1573_1720del', '1335_1411insatgcaatgtatggtgtgtaattttgcattggattaggccgtgtgtgcatgccttcggtttttcggttttcctgttt']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['215t&gt;c']</t>
+          <t>['215_312insagcatagcgtaaataatggaaagaccaaggcggaggggttatccatgacgtactgacaaacactcaactttgcgtcctgattacctgtttcgtggac', '171_239del', '226_288del', '160_218inscaaaggcatgccgtgcctcggtccagtcgatacagaaaaacgcgccttggccttaaaa', '165_189instcggcacgtgaaactgtatgaggc']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89293907591</v>
+        <v>45441.83319883107</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1569_1569del']</t>
+          <t>['1511_1565del', '1510_1572del', '1350_1365del', '1407_1418insgcattgacgga', '1331_1473insctgtcggtttggcactcaggaggtgactaagtagcgccactgggcagtcccgccctgcaatctgcactctaagagagaaattgagcagcgggtgcctaccgtcaagaagctaaaattgccattgtggtgcgcttaattaatt']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['2000g&gt;t']</t>
+          <t>['2065_2119insttcttgcgcaaaagtaccctaaatctgtccgtacttgcacgtgccccccccttc', '2019_2151instcttacttgggttaaacatttcttaagtttttagtgtccctatggtctcccgattacaatgaatcaatggacgaacgtctcttcgtgattctctgcatctctttatgccgcactttgccgccttctggttaa', '2042_2095del', '2033_2168del', '2047_2169del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.8929390933</v>
+        <v>45441.83319884841</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['194a&gt;g']</t>
+          <t>['246_294inscgtcacagctcaccctaattatggactttcagtgcgcgtacacgggga', '194_211insgtgggcctgttcaagga', '227_244insataccacgaatgtaatc', '191_332inscctcgcgattttgcggcttaacagtaaaacaccgcttctcagacgcagtggagggagctcagccgctcacttacgatgctgccacactttgacgtttcctaatctagatctcgcgcacagccaagcccagtcacgtcgcat', '251_335del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['2066g&gt;t']</t>
+          <t>['2082_2193del', '2072_2218instgtattgactcctgtgtaattccgccactgctcgaggcagtaaaagaagtctgtcccactcagtactgggttcccgaataaaatattgactgccgccaccaccgtgcttaatcgcaaattagctctcgacttcttcgaaaccgttg', '2035_2155insccctttgaagaatcggaaataagtactaagggtcatgtgttacgtgccgagtttcgctgttttatgaacccctgtgcgtacaggctctcaccgtgagcaaagaactactctatgtcacgc', '2068_2196del', '1995_2080insaccgttcagagcaggcttctcagaagttaaggacggtctagtggtactttaaggctcacccaggatgtatcatctaaggggactc']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89293911064</v>
+        <v>45441.83319886001</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1567_1568del']</t>
+          <t>['1543_1584inscgccaggcagtaccgaaccggactttagcaacgagtccgta', '1429_1572insactcggttcagcagcagtgcaaagtatattgccgtgagaaagctgaattcggtcgcaagggccagaatgccggatattctcacacggttttcgccaatagttatggcggtacatgtacaacgataatccacagactgaatcta', '1373_1408insgacattggaactagcaacgaggtgccctgtttact', '1471_1525insgtggaaaaacctattggctagcgccctgtatacttaggatactttgtacgtcag', '1335_1476instcctaaacaccgtgcccgcttagcattccacgttccccagaagttagcccatttcgttaagagaacgcggtctctggtaataacgcaaggccagtaatcggccgactctctaccttaaagcaggcgtcatttgacaatata']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['245_246insg']</t>
+          <t>['201_227del', '179_315insgcagaattgtggtcaaactgtgttgaagcggagcgttagccttaaaaggatgtcatactcgaaggactttcgctgcccagtgggtgaggcttcgaacacgggcacaccgcatttgtacctacgatctagatgtatt', '167_182del', '204_243insccatgaacgacattgacgacactggttcatctgatacag', '159_256del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['2020c&gt;g']</t>
+          <t>['2074_2161insgcattgactttcggggcaaaatcggcgataatcacccaaccacttcttggaggctcgcttctacacagtagaccagcgcgactaccc', '2051_2181del', '2087_2186insgtgtcctaactcagcgcgacaccgctctcctcctcgtttaacctcgtacccagacgcttcgttcattctagagccagtcagggtcggggccgacagcat', '1999_2126insaatataggtgtgtcggattactcgcataggctcttgcaagttttatgataggttcaacgctaagttgccaggtagggcgtttgaggaggattagccttaataaaacgcctacttaagagggccaatc', '1990_2036insgggggcagagcaaatgcaagttaggatctcggcctttgacttttgg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89293912223</v>
+        <v>45441.83319888906</v>
       </c>
     </row>
   </sheetData>
